--- a/biology/Zoologie/Carnosaur_2/Carnosaur_2.xlsx
+++ b/biology/Zoologie/Carnosaur_2/Carnosaur_2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Carnosaur 2 est un film américain  réalisé par Louis Morneau, sorti en 1995. 
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Une équipe d'électriciens de l'extrême est envoyée dans une ancienne mine classée top secret depuis que des phénomènes étranges y ont été repérés. Sur place, ils font la plus ahurissante découverte de l’histoire de l’humanité. Loin de tout, coupés du monde, des dinosaures clonés se multiplient, bien décidés à envahir la planète et à éliminer l’Homme. Un combat sans merci s’engage…
 </t>
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Carnosaur 2
 Réalisation : Louis Morneau
@@ -585,7 +601,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>John Savage : Jack Reed
 Cliff De Young : Tom McQuade
@@ -629,7 +647,9 @@
           <t>Autour du film</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Plusieurs scènes du film sont directement inspirés d'Aliens, le retour.
 Les deinonychus du premier film furent remplacés par des vélociraptors. Cependant, à l'exception du cou et de la tête, les mêmes costumes furent réutilisés.
@@ -663,7 +683,9 @@
           <t>Franchise Carnosaur</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>1993 : Carnosaur, de Adam Simon et Darren Moloney
 1996 : Carnosaur 3 (Carnosaur 3: Primal Species), de Jonathan Winfrey
